--- a/src/basic/string/KPM.xlsx
+++ b/src/basic/string/KPM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="6960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="40">
   <si>
     <t>b</t>
   </si>
@@ -141,6 +142,9 @@
   </si>
   <si>
     <t>i=6, P=abcdab, suffix=ab is the largest suffix of P which has length = 2 =&gt; S[6] = 2</t>
+  </si>
+  <si>
+    <t>P[i]</t>
   </si>
 </sst>
 </file>
@@ -539,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3346,4 +3350,2821 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="33" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="9">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="X4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2">
+        <v>12</v>
+      </c>
+      <c r="O11" s="2">
+        <v>13</v>
+      </c>
+      <c r="P11" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2">
+        <v>17</v>
+      </c>
+      <c r="T11" s="2">
+        <v>18</v>
+      </c>
+      <c r="U11" s="2">
+        <v>19</v>
+      </c>
+      <c r="V11" s="2">
+        <v>20</v>
+      </c>
+      <c r="W11" s="2">
+        <v>21</v>
+      </c>
+      <c r="X11" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2">
+        <v>16</v>
+      </c>
+      <c r="S18" s="2">
+        <v>17</v>
+      </c>
+      <c r="T18" s="2">
+        <v>18</v>
+      </c>
+      <c r="U18" s="2">
+        <v>19</v>
+      </c>
+      <c r="V18" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" s="2">
+        <v>21</v>
+      </c>
+      <c r="X18" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10</v>
+      </c>
+      <c r="M25" s="2">
+        <v>11</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>15</v>
+      </c>
+      <c r="R25" s="2">
+        <v>16</v>
+      </c>
+      <c r="S25" s="2">
+        <v>17</v>
+      </c>
+      <c r="T25" s="2">
+        <v>18</v>
+      </c>
+      <c r="U25" s="2">
+        <v>19</v>
+      </c>
+      <c r="V25" s="2">
+        <v>20</v>
+      </c>
+      <c r="W25" s="2">
+        <v>21</v>
+      </c>
+      <c r="X25" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>10</v>
+      </c>
+      <c r="M32" s="2">
+        <v>11</v>
+      </c>
+      <c r="N32" s="2">
+        <v>12</v>
+      </c>
+      <c r="O32" s="2">
+        <v>13</v>
+      </c>
+      <c r="P32" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>15</v>
+      </c>
+      <c r="R32" s="2">
+        <v>16</v>
+      </c>
+      <c r="S32" s="2">
+        <v>17</v>
+      </c>
+      <c r="T32" s="2">
+        <v>18</v>
+      </c>
+      <c r="U32" s="2">
+        <v>19</v>
+      </c>
+      <c r="V32" s="2">
+        <v>20</v>
+      </c>
+      <c r="W32" s="2">
+        <v>21</v>
+      </c>
+      <c r="X32" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG32" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9</v>
+      </c>
+      <c r="L39" s="2">
+        <v>10</v>
+      </c>
+      <c r="M39" s="2">
+        <v>11</v>
+      </c>
+      <c r="N39" s="2">
+        <v>12</v>
+      </c>
+      <c r="O39" s="2">
+        <v>13</v>
+      </c>
+      <c r="P39" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>15</v>
+      </c>
+      <c r="R39" s="2">
+        <v>16</v>
+      </c>
+      <c r="S39" s="2">
+        <v>17</v>
+      </c>
+      <c r="T39" s="2">
+        <v>18</v>
+      </c>
+      <c r="U39" s="2">
+        <v>19</v>
+      </c>
+      <c r="V39" s="2">
+        <v>20</v>
+      </c>
+      <c r="W39" s="2">
+        <v>21</v>
+      </c>
+      <c r="X39" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE39" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG39" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG40" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="2">
+        <v>8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9</v>
+      </c>
+      <c r="L46" s="2">
+        <v>10</v>
+      </c>
+      <c r="M46" s="2">
+        <v>11</v>
+      </c>
+      <c r="N46" s="2">
+        <v>12</v>
+      </c>
+      <c r="O46" s="2">
+        <v>13</v>
+      </c>
+      <c r="P46" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>15</v>
+      </c>
+      <c r="R46" s="2">
+        <v>16</v>
+      </c>
+      <c r="S46" s="2">
+        <v>17</v>
+      </c>
+      <c r="T46" s="2">
+        <v>18</v>
+      </c>
+      <c r="U46" s="2">
+        <v>19</v>
+      </c>
+      <c r="V46" s="2">
+        <v>20</v>
+      </c>
+      <c r="W46" s="2">
+        <v>21</v>
+      </c>
+      <c r="X46" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG46" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG47" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+      <c r="J53" s="2">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2">
+        <v>10</v>
+      </c>
+      <c r="M53" s="2">
+        <v>11</v>
+      </c>
+      <c r="N53" s="2">
+        <v>12</v>
+      </c>
+      <c r="O53" s="2">
+        <v>13</v>
+      </c>
+      <c r="P53" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>15</v>
+      </c>
+      <c r="R53" s="2">
+        <v>16</v>
+      </c>
+      <c r="S53" s="2">
+        <v>17</v>
+      </c>
+      <c r="T53" s="2">
+        <v>18</v>
+      </c>
+      <c r="U53" s="2">
+        <v>19</v>
+      </c>
+      <c r="V53" s="2">
+        <v>20</v>
+      </c>
+      <c r="W53" s="2">
+        <v>21</v>
+      </c>
+      <c r="X53" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE53" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF53" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG53" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG54" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2">
+        <v>7</v>
+      </c>
+      <c r="J58" s="2">
+        <v>8</v>
+      </c>
+      <c r="K58" s="2">
+        <v>9</v>
+      </c>
+      <c r="L58" s="2">
+        <v>10</v>
+      </c>
+      <c r="M58" s="2">
+        <v>11</v>
+      </c>
+      <c r="N58" s="2">
+        <v>12</v>
+      </c>
+      <c r="O58" s="2">
+        <v>13</v>
+      </c>
+      <c r="P58" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>15</v>
+      </c>
+      <c r="R58" s="2">
+        <v>16</v>
+      </c>
+      <c r="S58" s="2">
+        <v>17</v>
+      </c>
+      <c r="T58" s="2">
+        <v>18</v>
+      </c>
+      <c r="U58" s="2">
+        <v>19</v>
+      </c>
+      <c r="V58" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" s="2">
+        <v>21</v>
+      </c>
+      <c r="X58" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE58" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF58" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG58" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG59" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8</v>
+      </c>
+      <c r="K63" s="2">
+        <v>9</v>
+      </c>
+      <c r="L63" s="2">
+        <v>10</v>
+      </c>
+      <c r="M63" s="2">
+        <v>11</v>
+      </c>
+      <c r="N63" s="2">
+        <v>12</v>
+      </c>
+      <c r="O63" s="2">
+        <v>13</v>
+      </c>
+      <c r="P63" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>15</v>
+      </c>
+      <c r="R63" s="2">
+        <v>16</v>
+      </c>
+      <c r="S63" s="2">
+        <v>17</v>
+      </c>
+      <c r="T63" s="2">
+        <v>18</v>
+      </c>
+      <c r="U63" s="2">
+        <v>19</v>
+      </c>
+      <c r="V63" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" s="2">
+        <v>21</v>
+      </c>
+      <c r="X63" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD63" s="12">
+        <v>28</v>
+      </c>
+      <c r="AE63" s="12">
+        <v>29</v>
+      </c>
+      <c r="AF63" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG63" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG64" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>